--- a/STEPHEN KAPAIKO.xlsx
+++ b/STEPHEN KAPAIKO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="11565" firstSheet="3" activeTab="5"/>
   </bookViews>
@@ -22,12 +17,12 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="73">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -197,9 +192,6 @@
     <t>DAVID KAPAIKO</t>
   </si>
   <si>
-    <t xml:space="preserve">PAID ON </t>
-  </si>
-  <si>
     <t>PAID ON 11/11</t>
   </si>
   <si>
@@ -220,11 +212,41 @@
   <si>
     <t>PAMEIA MUYOKA</t>
   </si>
+  <si>
+    <t>PAID ON 4/12</t>
+  </si>
+  <si>
+    <t>PAID ON 9/11</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>DEPOSIT NO5</t>
+  </si>
+  <si>
+    <t>PAID ON  11/11</t>
+  </si>
+  <si>
+    <t>DEPOSIT NO.4</t>
+  </si>
+  <si>
+    <t>PAID ON 9/12</t>
+  </si>
+  <si>
+    <t>PAID ON 13/12</t>
+  </si>
+  <si>
+    <t>PAID ON  15/12</t>
+  </si>
+  <si>
+    <t>PAID ON 15/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -449,6 +471,7 @@
       <sheetName val="SEPT 21"/>
       <sheetName val="OCTOBER  21"/>
       <sheetName val="NOVEMBER 21"/>
+      <sheetName val="DECEMBER 21"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -758,6 +781,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="39"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -806,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,7 +865,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4019,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4574,7 +4598,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C16" s="21">
         <v>3500</v>
@@ -4681,14 +4705,20 @@
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>6720</v>
+      </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>6720</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="N19" s="13" t="s">
         <v>19</v>
@@ -4734,13 +4764,21 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="P21" s="4">
+        <v>6420</v>
+      </c>
       <c r="Q21" s="13"/>
-      <c r="R21" s="4"/>
+      <c r="R21" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="4">
+        <v>6420</v>
+      </c>
       <c r="U21" s="13"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -4792,11 +4830,11 @@
       </c>
       <c r="D24" s="23">
         <f>SUM(D19:D23)</f>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="E24" s="23">
         <f>C24-D24</f>
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>21</v>
@@ -4807,11 +4845,11 @@
       </c>
       <c r="H24" s="23">
         <f>SUM(H19:H23)</f>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="I24" s="23">
         <f>G24-H24</f>
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="4"/>
@@ -4840,11 +4878,11 @@
       </c>
       <c r="P25" s="23">
         <f>SUM(P20:P24)</f>
-        <v>0</v>
+        <v>6420</v>
       </c>
       <c r="Q25" s="23">
         <f>O25-P25</f>
-        <v>3680</v>
+        <v>-2740</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>21</v>
@@ -4855,11 +4893,11 @@
       </c>
       <c r="T25" s="23">
         <f>SUM(T20:T24)</f>
-        <v>0</v>
+        <v>6420</v>
       </c>
       <c r="U25" s="23">
         <f>S25-T25</f>
-        <v>3680</v>
+        <v>-2740</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -5469,7 +5507,7 @@
       </c>
       <c r="I48" s="8"/>
       <c r="O48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4">
@@ -5477,7 +5515,7 @@
       </c>
       <c r="R48" s="13"/>
       <c r="S48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T48" s="4"/>
       <c r="U48" s="4">
@@ -5717,7 +5755,7 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4">
@@ -5725,7 +5763,7 @@
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4">
@@ -5738,7 +5776,7 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13">
@@ -5746,7 +5784,7 @@
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13">
@@ -5882,13 +5920,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
@@ -5922,7 +5963,7 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5931,7 +5972,7 @@
       <c r="H3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -6008,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -6048,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -6088,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -6112,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3">
         <v>3500</v>
@@ -6126,31 +6167,34 @@
         <v>7000</v>
       </c>
       <c r="G8" s="3">
-        <v>5000</v>
+        <f>5000+2000</f>
+        <v>7000</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="K8">
-        <f>G17*E9</f>
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3">
         <f>'NOVEMBER 21'!T8:T13</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>4000</v>
+      </c>
       <c r="R8" s="3">
         <f t="shared" ref="R8:R10" si="4">O8+P8+Q8</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="3"/>
+        <v>4000</v>
+      </c>
+      <c r="S8" s="3">
+        <v>4000</v>
+      </c>
       <c r="T8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6163,9 +6207,7 @@
       <c r="B9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="28">
-        <v>3500</v>
-      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="28">
         <f>'OCTOBER 21'!H9</f>
         <v>0</v>
@@ -6175,39 +6217,33 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="1"/>
-        <v>7000</v>
-      </c>
-      <c r="G9" s="28"/>
+        <v>3500</v>
+      </c>
+      <c r="G9" s="28">
+        <v>3500</v>
+      </c>
       <c r="H9" s="28">
         <f t="shared" si="2"/>
-        <v>7000</v>
-      </c>
-      <c r="K9">
-        <f>G9-K8</f>
-        <v>-280</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="3">
         <f>'NOVEMBER 21'!T9:T14</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="11">
-        <v>4000</v>
-      </c>
+      <c r="Q9" s="11"/>
       <c r="R9" s="3">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -6217,7 +6253,7 @@
       </c>
       <c r="C10" s="13">
         <f t="shared" ref="C10:H10" si="5">SUM(C5:C9)</f>
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="5"/>
@@ -6229,18 +6265,15 @@
       </c>
       <c r="F10" s="13">
         <f t="shared" si="5"/>
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-      <c r="M10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -6271,7 +6304,7 @@
         <v>21</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" ref="O11:T11" si="6">SUM(O5:O10)</f>
+        <f t="shared" ref="O11:R11" si="6">SUM(O5:O10)</f>
         <v>0</v>
       </c>
       <c r="P11" s="3">
@@ -6287,12 +6320,12 @@
         <v>4000</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUM(S5:S10)</f>
+        <v>4000</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="6"/>
-        <v>4000</v>
+        <f>SUM(T5:T10)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -6355,7 +6388,7 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C14" s="21">
         <f>E10</f>
@@ -6364,11 +6397,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G14" s="21">
         <f>G10</f>
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -6402,7 +6435,7 @@
       </c>
       <c r="C15" s="21">
         <f>'NOVEMBER 21'!E24</f>
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -6411,12 +6444,12 @@
       </c>
       <c r="G15" s="21">
         <f>'NOVEMBER 21'!I24</f>
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="O15" s="21">
         <f>Q11</f>
@@ -6425,11 +6458,11 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="S15" s="3">
         <f>S11</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="4"/>
@@ -6437,7 +6470,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C16" s="21">
         <v>3500</v>
@@ -6453,7 +6486,7 @@
       </c>
       <c r="O16" s="21">
         <f>'NOVEMBER 21'!Q25</f>
-        <v>3680</v>
+        <v>-2740</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -6462,12 +6495,12 @@
       </c>
       <c r="S16" s="21">
         <f>'NOVEMBER 21'!U25</f>
-        <v>3680</v>
+        <v>-2740</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
@@ -6491,9 +6524,7 @@
         <v>560</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="21"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -6502,7 +6533,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="13" t="s">
         <v>19</v>
@@ -6541,17 +6572,23 @@
       </c>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>9940</v>
+      </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>9940</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="N19" s="13" t="s">
         <v>19</v>
@@ -6568,7 +6605,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -6578,16 +6615,24 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="13"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="P20" s="4">
+        <v>940</v>
+      </c>
       <c r="Q20" s="13"/>
-      <c r="R20" s="4"/>
+      <c r="R20" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="T20" s="4">
+        <v>940</v>
+      </c>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -6605,8 +6650,12 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="13"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="24">
+        <f>O15-P18</f>
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6625,7 +6674,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="25"/>
       <c r="C23" s="4"/>
@@ -6644,37 +6693,37 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="23">
         <f>C14+C15+C16-D17</f>
-        <v>16660</v>
+        <v>9940</v>
       </c>
       <c r="D24" s="23">
         <f>SUM(D19:D23)</f>
-        <v>0</v>
+        <v>9940</v>
       </c>
       <c r="E24" s="23">
         <f>C24-D24</f>
-        <v>16660</v>
+        <v>0</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="23">
         <f>G14+G15+G16-H17</f>
-        <v>11160</v>
+        <v>9940</v>
       </c>
       <c r="H24" s="23">
         <f>SUM(H19:H23)</f>
-        <v>0</v>
+        <v>9940</v>
       </c>
       <c r="I24" s="23">
         <f>G24-H24</f>
-        <v>11160</v>
+        <v>0</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="4"/>
@@ -6685,7 +6734,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -6699,33 +6748,33 @@
       </c>
       <c r="O25" s="23">
         <f>O15+O16+O17-P18</f>
-        <v>7360</v>
+        <v>940</v>
       </c>
       <c r="P25" s="23">
         <f>SUM(P20:P24)</f>
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="Q25" s="23">
         <f>O25-P25</f>
-        <v>7360</v>
+        <v>0</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S25" s="23">
         <f>S15+S16+S17-T18</f>
-        <v>3360</v>
+        <v>940</v>
       </c>
       <c r="T25" s="23">
         <f>SUM(T20:T24)</f>
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="U25" s="23">
         <f>S25-T25</f>
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>22</v>
       </c>
@@ -6749,7 +6798,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -6773,7 +6822,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -6789,13 +6838,13 @@
       <c r="H28" s="12"/>
       <c r="I28" s="26"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P30" s="1" t="s">
         <v>0</v>
       </c>
@@ -6803,15 +6852,15 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N32" s="12"/>
       <c r="O32" s="2" t="s">
         <v>3</v>
@@ -6847,7 +6896,7 @@
         <v>18</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33" s="3">
         <v>4000</v>
@@ -6878,10 +6927,6 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="J34">
-        <f>10000+1050+600+200</f>
-        <v>11850</v>
-      </c>
       <c r="N34">
         <v>19</v>
       </c>
@@ -6904,14 +6949,11 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="J35" t="s">
-        <v>20</v>
-      </c>
       <c r="N35">
         <v>20</v>
       </c>
@@ -6951,10 +6993,12 @@
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="T36" s="3"/>
+      <c r="T36" s="3">
+        <v>3000</v>
+      </c>
       <c r="U36" s="3">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -6970,28 +7014,28 @@
         <v>21</v>
       </c>
       <c r="P37" s="3">
-        <f>SUM(P33:P36)</f>
+        <f t="shared" ref="P37:U37" si="9">SUM(P33:P36)</f>
         <v>4000</v>
       </c>
       <c r="Q37" s="3">
-        <f>SUM(Q33:Q36)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R37" s="3">
-        <f>SUM(R33:R36)</f>
+        <f t="shared" si="9"/>
         <v>7000</v>
       </c>
       <c r="S37" s="3">
-        <f>SUM(S33:S36)</f>
+        <f t="shared" si="9"/>
         <v>11000</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" ref="T37" si="9">SUM(S37)</f>
+        <f t="shared" si="9"/>
         <v>11000</v>
       </c>
       <c r="U37" s="3">
-        <f>SUM(U33:U36)</f>
-        <v>3000</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -7050,7 +7094,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3">
-        <f t="shared" ref="F40:F44" si="11">C40+D40+E40</f>
+        <f t="shared" ref="F40:F45" si="11">C40+D40+E40</f>
         <v>0</v>
       </c>
       <c r="G40" s="3"/>
@@ -7103,7 +7147,7 @@
         <v>4000</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" ref="H42:H44" si="12">F42-G42</f>
+        <f t="shared" ref="H42:H45" si="12">F42-G42</f>
         <v>2500</v>
       </c>
       <c r="O42" s="19" t="s">
@@ -7140,10 +7184,12 @@
         <f t="shared" si="11"/>
         <v>7000</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3">
+        <v>3500</v>
+      </c>
       <c r="H43" s="11">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O43" s="13" t="s">
         <v>12</v>
@@ -7169,164 +7215,166 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B44" s="4"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="11"/>
+      <c r="O44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" s="13">
+        <f>R37</f>
+        <v>7000</v>
+      </c>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="13">
+        <f>T37</f>
+        <v>11000</v>
+      </c>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>12</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="3">
+      <c r="C45" s="11"/>
+      <c r="D45" s="3">
         <f>'NOVEMBER 21'!H45</f>
         <v>3500</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <f t="shared" si="11"/>
         <v>7000</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="11">
+      <c r="G45" s="3">
+        <f>3500</f>
+        <v>3500</v>
+      </c>
+      <c r="H45" s="11">
         <f t="shared" si="12"/>
-        <v>7000</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P44" s="21">
-        <f>R37</f>
-        <v>7000</v>
-      </c>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="21">
+        <v>3500</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="21">
+        <f>P37</f>
+        <v>4000</v>
+      </c>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T45" s="21">
         <f>T40</f>
         <v>0</v>
       </c>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="13">
-        <f t="shared" ref="C45:H45" si="13">SUM(C39:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C46" s="13">
+        <f t="shared" ref="C46:H46" si="13">SUM(C39:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
         <f t="shared" si="13"/>
         <v>10000</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <f t="shared" si="13"/>
         <v>10500</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <f t="shared" si="13"/>
         <v>20500</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <f t="shared" si="13"/>
-        <v>4000</v>
-      </c>
-      <c r="H45" s="13">
+        <v>11000</v>
+      </c>
+      <c r="H46" s="13">
         <f t="shared" si="13"/>
-        <v>16500</v>
-      </c>
-      <c r="O45" s="4" t="s">
+        <v>9500</v>
+      </c>
+      <c r="O46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P45" s="22">
+      <c r="P46" s="22">
         <v>0.08</v>
       </c>
-      <c r="Q45" s="21">
-        <f>P45*P44</f>
+      <c r="Q46" s="21">
+        <f>P46*P44</f>
         <v>560</v>
       </c>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4" t="s">
+      <c r="R46" s="4"/>
+      <c r="S46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T45" s="22">
+      <c r="T46" s="22">
         <v>0.08</v>
       </c>
-      <c r="U45" s="21">
-        <f>T45*R37</f>
+      <c r="U46" s="21">
+        <f>T46*R37</f>
         <v>560</v>
       </c>
-      <c r="V45" s="4"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C46" s="14"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="O46" s="13" t="s">
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="14"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
+      <c r="O47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="13" t="s">
+      <c r="P47" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13" t="s">
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T46" s="23"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
+      <c r="T47" s="23"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19" t="s">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12" t="s">
+      <c r="G48" s="12"/>
+      <c r="H48" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="13"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="I48" s="8"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -7337,223 +7385,250 @@
       <c r="V48" s="13"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="21">
-        <f>E45</f>
-        <v>10500</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" s="21">
-        <f>G45</f>
-        <v>4000</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4">
+        <v>7680</v>
+      </c>
       <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
+      <c r="S49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4">
+        <v>7680</v>
+      </c>
       <c r="V49" s="13"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C50" s="21">
-        <f>'NOVEMBER 21'!E60</f>
-        <v>0</v>
+        <f>E46</f>
+        <v>10500</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="G50" s="21">
-        <f>'NOVEMBER 21'!I60</f>
-        <v>0</v>
+        <f>G46</f>
+        <v>11000</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="O50" s="13"/>
+      <c r="O50" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
+      <c r="Q50" s="13">
+        <v>2760</v>
+      </c>
       <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
+      <c r="S50" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
+      <c r="U50" s="13">
+        <v>2760</v>
+      </c>
       <c r="V50" s="13"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C51" s="21">
-        <v>500</v>
+        <f>'NOVEMBER 21'!E60</f>
+        <v>0</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="21"/>
+      <c r="F51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="21">
+        <f>'NOVEMBER 21'!I60</f>
+        <v>0</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="21">
+        <v>500</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C53" s="22">
         <v>0.08</v>
       </c>
-      <c r="D52" s="21">
-        <f>C52*C49</f>
+      <c r="D53" s="21">
+        <f>C53*C50</f>
         <v>840</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G53" s="22">
         <v>0.08</v>
       </c>
-      <c r="H52" s="21">
-        <f>G52*C49</f>
+      <c r="H53" s="21">
+        <f>G53*C50</f>
         <v>840</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="K52">
-        <f>E45</f>
-        <v>10500</v>
-      </c>
-      <c r="O52" s="13" t="s">
+      <c r="I53" s="4"/>
+      <c r="O53" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P52" s="23">
-        <f>P44-Q45</f>
-        <v>6440</v>
-      </c>
-      <c r="Q52" s="23">
-        <f>SUM(Q47:Q51)</f>
-        <v>0</v>
-      </c>
-      <c r="R52" s="23">
-        <f>P52-Q52</f>
-        <v>6440</v>
-      </c>
-      <c r="S52" s="13" t="s">
+      <c r="P53" s="23">
+        <f>P45+P44-Q46</f>
+        <v>10440</v>
+      </c>
+      <c r="Q53" s="23">
+        <f>SUM(Q48:Q52)</f>
+        <v>10440</v>
+      </c>
+      <c r="R53" s="23">
+        <f>P53-Q53</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T52" s="23">
-        <f>T44-U45</f>
-        <v>-560</v>
-      </c>
-      <c r="U52" s="23">
-        <f>SUM(U47:U51)</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="23">
-        <f>T52-U52</f>
-        <v>-560</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
+      <c r="T53" s="23">
+        <f>T45+T44-U46</f>
+        <v>10440</v>
+      </c>
+      <c r="U53" s="23">
+        <f>SUM(U48:U52)</f>
+        <v>10440</v>
+      </c>
+      <c r="V53" s="23">
+        <f>T53-U53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="K53" s="24">
-        <f>D52</f>
-        <v>840</v>
-      </c>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="13"/>
       <c r="I54" s="13"/>
-      <c r="K54" s="24">
-        <f>K52-K53</f>
-        <v>9660</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="K54" s="24"/>
+      <c r="O54" s="12"/>
       <c r="P54" s="12"/>
-      <c r="Q54" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
-      <c r="T54" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="T54" s="12"/>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4">
+        <v>10087</v>
+      </c>
       <c r="E55" s="13"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4">
+        <v>10087</v>
+      </c>
       <c r="I55" s="13"/>
-      <c r="K55">
-        <v>500</v>
-      </c>
+      <c r="K55" s="24"/>
+      <c r="O55" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
       <c r="I56" s="13"/>
-      <c r="K56" s="24">
-        <f>K54+K55</f>
-        <v>10160</v>
-      </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
@@ -7564,110 +7639,112 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
-      <c r="K57">
-        <v>5000</v>
-      </c>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="K58">
-        <v>3500</v>
-      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="23">
-        <f>C49+C50+C51-D52</f>
+      <c r="C60" s="23">
+        <f>C50+C51+C52-D53</f>
         <v>10160</v>
       </c>
-      <c r="D59" s="23">
-        <f>SUM(D54:D58)</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="23">
-        <f>C59-D59</f>
+      <c r="D60" s="23">
+        <f>SUM(D55:D59)</f>
+        <v>10087</v>
+      </c>
+      <c r="E60" s="23">
+        <f>C60-D60</f>
+        <v>73</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="23">
+        <f>G50+G51+G52-H53</f>
         <v>10160</v>
       </c>
-      <c r="F59" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="23">
-        <f>G49+G50+G51-H52</f>
-        <v>3160</v>
-      </c>
-      <c r="H59" s="23">
-        <f>SUM(H54:H58)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="23">
-        <f>G59-H59</f>
-        <v>3160</v>
-      </c>
-      <c r="K59" s="24">
-        <f>K56-K57-K58</f>
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
+      <c r="H60" s="23">
+        <f>SUM(H55:H59)</f>
+        <v>10087</v>
+      </c>
+      <c r="I60" s="23">
+        <f>G60-H60</f>
+        <v>73</v>
+      </c>
+      <c r="K60" s="24"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="B61" s="12"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="12"/>
+      <c r="B62" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="G62" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B63" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="B63" s="12"/>
       <c r="C63" s="12"/>
-      <c r="D63" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="12" t="s">
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="26"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
